--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/47_Kayseri_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/47_Kayseri_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA806A65-482A-4044-8DBD-9E64E830284F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7508CD93-EF25-415A-BDC1-4A3DC5E017F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{BA870EE2-6201-47F7-B104-F47FC41726D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{0C9810C8-9CF1-4F3B-BF08-CA6DCF7ED5B9}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{84EFE182-BC34-4B7A-8C91-085F234A4349}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6DC4EE74-9B4E-43EC-9109-EBB628DB5944}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{E8F317C1-D319-4113-BA4D-BD0B9C4728C4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{D5679257-62CE-4C8F-A67B-4F44AB6C7377}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{512D194B-2340-42D8-A71C-5F78988D0040}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{C8A32F5F-679E-4D41-96D1-4A97F4840E7A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{367D9B78-B45A-4EE2-89AD-E74F9EB52452}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A10AE1B7-6A8C-4C38-92FB-58396B759CEB}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5A074FDE-FAD7-4EE1-8721-4ADE810A95E6}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{6CC46120-60E6-4EB6-B512-B842AE3F3828}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{D4F915DA-3BCC-40B8-A95A-790C7810CB0F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{F9892D66-6D98-417D-ABA4-4A281AB91024}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{1E838DFF-890F-4D74-B889-9859FAD4AA50}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{3DB38151-DC70-4848-9215-1ACF9FC7CD9D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7542C3-1BC8-4430-8E51-B4AE25913A2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50F3EC9-36F6-4F7F-9821-B92FA3836EE7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2606,7 +2606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C73AB9-1039-4FED-9568-1B93020B9D27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5EDE49-1698-4E53-A342-1B0487B840A4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3923,7 +3923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C384A6EE-12AF-44B8-8735-41C1DC2B2333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD40C7C-4DD3-4006-B8F4-90F432D9F22A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5240,7 +5240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BE0E6B-9E3C-4465-9E4A-8AFA22B55147}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32F0B48-1F55-4A0B-BB1E-32D017DCF8AE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6543,7 +6543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79945CE4-A8FE-470D-B2A0-1C645ED40A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0700BA0B-6125-49FF-905A-7B43179EFE90}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7868,7 +7868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF78978E-88F4-4515-9B40-063F10E31D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A36E75-CD84-43FF-8740-A1ED8D64808C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9191,7 +9191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DFAF14-F896-4758-B86D-6C97C0695589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80286DF-B2B5-403E-9158-7BBC5DBCCDC4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10516,7 +10516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71161886-884D-4416-9D0E-0A6BF64C01C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE90DC52-6EC3-4179-9F83-47522FC48082}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11841,7 +11841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F70C1C1-EDC2-4F75-B3C0-88E4E886AD51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4888323-CE5E-47F2-AFC8-73C847984FB3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13164,7 +13164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4CFFBD-0393-4CE2-9149-E608D7C137AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EDB55A-993A-4F29-8CD6-D3208F2D6329}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14479,7 +14479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE241328-DFC0-4E92-A7E3-00124E937B63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456DDE83-1B9A-469F-B297-4F9A3C3D1312}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15794,7 +15794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DA8C1D-DCF7-4836-9BE6-20C65DFAC4E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75A7A17-83CD-4AC3-89A7-91B15BEF767C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
